--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2000380.614647381</v>
+        <v>1998493.033130979</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>274.2747577784083</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4619742408227</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>183.1439721715193</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>61.71927587612997</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>8.546296656423316</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>5.983388191319386</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>242.7378581659469</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>156.1271626621468</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>194.8026695426854</v>
+        <v>33.35146980185885</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15909059003918</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>166.1848299532892</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.28492340924037</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>39.11561436815793</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>134.7868560892702</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>122.5264189150279</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3416446087992</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664917</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>53.30966977322448</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>59.77945773664939</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>55.24575460049185</v>
+        <v>76.90718818968173</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3013,10 +3013,10 @@
         <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224535</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>902.4179758042681</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="C2" t="n">
-        <v>902.4179758042681</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D2" t="n">
-        <v>902.4179758042681</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>902.4179758042681</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1289.01781586839</v>
+        <v>945.6119145756962</v>
       </c>
       <c r="Y2" t="n">
-        <v>1289.01781586839</v>
+        <v>555.4725825998845</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>413.2717739202503</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="C5" t="n">
-        <v>413.2717739202503</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D5" t="n">
-        <v>413.2717739202503</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E5" t="n">
-        <v>413.2717739202503</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>406.3262731710468</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>392.4028691096377</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1190.010945960184</v>
+        <v>1578.435103297744</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.8716139843721</v>
+        <v>1578.435103297744</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.0839286340174</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936057</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685519</v>
+        <v>959.5129866402887</v>
       </c>
       <c r="E8" t="n">
-        <v>80.85571308685519</v>
+        <v>959.5129866402887</v>
       </c>
       <c r="F8" t="n">
-        <v>73.91021233765171</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>59.98680827624262</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>59.98680827624262</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.147180581275</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.823100673951</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571345</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750356</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296036</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>211.6471865296036</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609663</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550795</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181188</v>
+        <v>130.9054447954968</v>
       </c>
       <c r="X13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,16 +5276,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.8083514132642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>441.8721684853573</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>291.7555290730215</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>143.8424354906284</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.063975947119</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W16" t="n">
-        <v>1020.446367141521</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X16" t="n">
-        <v>792.4568162435039</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>792.4568162435039</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5519,13 +5519,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5601,19 +5601,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2298.964529638816</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2503.987010421026</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>665.6859735286132</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799367</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>939.0625057788493</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>939.0625057788493</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>939.0625057788493</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X22" t="n">
-        <v>711.072954880832</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y22" t="n">
-        <v>711.072954880832</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -5996,40 +5996,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>526.9050513325897</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6236,16 +6236,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115524</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>764.9211061669172</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>595.9849232390103</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>445.8682838266745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>297.9551902442814</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>151.0652427463712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>151.0652427463712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>985.7136853104473</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>985.7136853104473</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>764.9211061669172</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,34 +6452,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030887</v>
+        <v>494.8466681110222</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565524</v>
+        <v>381.671350464486</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2447118565524</v>
+        <v>287.3155763335211</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0924835555301</v>
+        <v>287.3155763335211</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297802</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
         <v>97.21709146028584</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894287</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818944</v>
+        <v>957.994667138697</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652479</v>
+        <v>785.7659815220504</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030887</v>
+        <v>620.7342676598911</v>
       </c>
     </row>
     <row r="32">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>143.7578250841098</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>292.8275092861696</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,52 +6932,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229674</v>
@@ -7078,31 +7078,31 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7151,52 +7151,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7266,10 +7266,10 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525407</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254963</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649698</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7412,49 +7412,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2292.946699347401</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2497.96918012961</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010317</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.65880339518</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,22 +8766,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>93.88676507992591</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>358.3520020925044</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814699</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>22.04402060665542</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814623</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>8.406710013101758</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>288.4091825776757</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256772</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>5.100663089359919</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>285.1031356539335</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929765</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>28.12263706263073</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>30.90698584635172</v>
+        <v>192.3581855871783</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>99.26195743289207</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>120.0525224452881</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.5470567726969</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>213.0220289556701</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>151.4504963093071</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>163.9965794215631</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.4903355731381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>95.60415859431164</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>34.97203679388225</v>
+        <v>13.31060320469247</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>874521.807353823</v>
+        <v>874521.8073538231</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>874521.8073538229</v>
+        <v>874521.807353823</v>
       </c>
     </row>
     <row r="10">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>533677.1504117845</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590215</v>
@@ -26326,10 +26326,10 @@
         <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590215</v>
@@ -26338,22 +26338,22 @@
         <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
-        <v>528868.7785488518</v>
+        <v>528868.7785488522</v>
       </c>
       <c r="L2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="M2" t="n">
         <v>533677.1504117845</v>
       </c>
-      <c r="M2" t="n">
-        <v>533677.1504117844</v>
-      </c>
       <c r="N2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284565</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26421,13 +26421,13 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
         <v>15045.66962143911</v>
@@ -26436,25 +26436,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="J4" t="n">
         <v>15045.66962143911</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563565</v>
+        <v>33210.29213563564</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275964</v>
+        <v>37464.4568627596</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275958</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
         <v>37464.45686275959</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,10 +26485,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26500,10 +26500,10 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295924.7651173923</v>
+        <v>-295924.7651173924</v>
       </c>
       <c r="C6" t="n">
-        <v>294043.1140971525</v>
+        <v>294043.1140971523</v>
       </c>
       <c r="D6" t="n">
-        <v>294043.1140971524</v>
+        <v>294043.1140971528</v>
       </c>
       <c r="E6" t="n">
-        <v>-123855.2543880304</v>
+        <v>-123952.7135140028</v>
       </c>
       <c r="F6" t="n">
-        <v>401304.7820888659</v>
+        <v>401207.3229628937</v>
       </c>
       <c r="G6" t="n">
-        <v>401304.7820888659</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="H6" t="n">
-        <v>401304.7820888659</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="I6" t="n">
-        <v>401304.782088866</v>
+        <v>401207.3229628936</v>
       </c>
       <c r="J6" t="n">
-        <v>224881.5628962729</v>
+        <v>224784.1037703006</v>
       </c>
       <c r="K6" t="n">
-        <v>354867.6725801477</v>
+        <v>354849.1788422138</v>
       </c>
       <c r="L6" t="n">
-        <v>388154.6809281327</v>
+        <v>388154.6809281326</v>
       </c>
       <c r="M6" t="n">
         <v>263696.5724951623</v>
       </c>
       <c r="N6" t="n">
-        <v>398497.5877289993</v>
+        <v>398497.5877289996</v>
       </c>
       <c r="O6" t="n">
-        <v>398497.5877289994</v>
+        <v>398497.5877289996</v>
       </c>
       <c r="P6" t="n">
-        <v>354334.9824261536</v>
+        <v>354334.9824261538</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108356</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>132.6012879633032</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.269126437646378</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>140.7788005928379</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>308.011824802339</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>243.5913466674047</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>145.9479280535419</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>8.486309342342423</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>23.70481751979054</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,22 +29272,22 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730649</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
@@ -35510,7 +35510,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>378.4011515192551</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35969,7 +35969,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>110.0570533917296</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>318.8310870635681</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>504.4912617279393</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875337</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376418</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>47.01084204426657</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>534.3608406099578</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146955</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>116.1356698477048</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
